--- a/GA_bNa_bCa_NaK/Errors3.xlsx
+++ b/GA_bNa_bCa_NaK/Errors3.xlsx
@@ -447,634 +447,634 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>470836.340513481</v>
+        <v>496024.3785425958</v>
       </c>
       <c r="B2" t="n">
-        <v>38766.09142461474</v>
+        <v>210814.1205684197</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>442110.7771496936</v>
+        <v>492657.9166289503</v>
       </c>
       <c r="B3" t="n">
-        <v>5675.242327942994</v>
+        <v>150698.5782793356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>436941.1563088488</v>
+        <v>475454.2141326168</v>
       </c>
       <c r="B4" t="n">
-        <v>5908.063299426196</v>
+        <v>69393.89281224034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>450564.4581590668</v>
+        <v>478428.6608953003</v>
       </c>
       <c r="B5" t="n">
-        <v>5908.063299426196</v>
+        <v>21668.04658947937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>433061.3584253686</v>
+        <v>481303.9713173597</v>
       </c>
       <c r="B6" t="n">
-        <v>3738.706855047656</v>
+        <v>120430.5143147241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>457930.0757922608</v>
+        <v>442590.230090175</v>
       </c>
       <c r="B7" t="n">
-        <v>8364.950020801292</v>
+        <v>12987.78011583826</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>438477.149837805</v>
+        <v>439313.3002299994</v>
       </c>
       <c r="B8" t="n">
-        <v>18437.91267808896</v>
+        <v>50797.78670394163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>420189.8816587106</v>
+        <v>423604.9773259355</v>
       </c>
       <c r="B9" t="n">
-        <v>2440.96650873426</v>
+        <v>32628.07033026587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>393031.4557107782</v>
+        <v>408055.2143472811</v>
       </c>
       <c r="B10" t="n">
-        <v>2013.721258219258</v>
+        <v>6175.807784925867</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>391002.0771304374</v>
+        <v>412227.3331335926</v>
       </c>
       <c r="B11" t="n">
-        <v>2647.792547362995</v>
+        <v>6985.546570618853</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>377680.8079606142</v>
+        <v>386948.1345725112</v>
       </c>
       <c r="B12" t="n">
-        <v>2229.067671456067</v>
+        <v>13144.42961630679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>338872.844245936</v>
+        <v>374292.7969937631</v>
       </c>
       <c r="B13" t="n">
-        <v>2547.972712427962</v>
+        <v>9651.969051489808</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>336772.4649890898</v>
+        <v>342126.4943675242</v>
       </c>
       <c r="B14" t="n">
-        <v>640.3971233894642</v>
+        <v>5962.605770040091</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>303136.5297492729</v>
+        <v>312956.6431730849</v>
       </c>
       <c r="B15" t="n">
-        <v>3219.41287730583</v>
+        <v>5439.77004555311</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>265414.2481331661</v>
+        <v>323991.2144222943</v>
       </c>
       <c r="B16" t="n">
-        <v>1400.234985108274</v>
+        <v>5524.930163392257</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>255040.7480009618</v>
+        <v>268884.778150711</v>
       </c>
       <c r="B17" t="n">
-        <v>1943.006162057215</v>
+        <v>6259.419329566766</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>232572.3178831304</v>
+        <v>259037.75323954</v>
       </c>
       <c r="B18" t="n">
-        <v>869.0858870216402</v>
+        <v>4444.656412759783</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>164668.8824018639</v>
+        <v>249607.4617803589</v>
       </c>
       <c r="B19" t="n">
-        <v>869.0858870216402</v>
+        <v>4067.624286730788</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>158294.0421005432</v>
+        <v>255911.7062215157</v>
       </c>
       <c r="B20" t="n">
-        <v>897.7785649287903</v>
+        <v>4757.544685883994</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>150528.0166889867</v>
+        <v>227644.1509517587</v>
       </c>
       <c r="B21" t="n">
-        <v>756.9407803238333</v>
+        <v>2854.314749510879</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>149574.9222455584</v>
+        <v>203106.5160641865</v>
       </c>
       <c r="B22" t="n">
-        <v>639.7994485995882</v>
+        <v>2623.656464173612</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>114585.6021313779</v>
+        <v>167992.8911388374</v>
       </c>
       <c r="B23" t="n">
-        <v>589.641145520492</v>
+        <v>3176.935373594105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>158352.5843772811</v>
+        <v>155243.3897797359</v>
       </c>
       <c r="B24" t="n">
-        <v>477.9689402926045</v>
+        <v>2474.287755045118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>115173.8818211374</v>
+        <v>118756.774276232</v>
       </c>
       <c r="B25" t="n">
-        <v>705.2097113655715</v>
+        <v>2150.436298521596</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>139903.9970746586</v>
+        <v>130824.0352076763</v>
       </c>
       <c r="B26" t="n">
-        <v>543.1412034558568</v>
+        <v>2937.623442807732</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>122076.212687124</v>
+        <v>119181.7447103738</v>
       </c>
       <c r="B27" t="n">
-        <v>574.7440903785828</v>
+        <v>2702.641215843023</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>135378.6478647202</v>
+        <v>86211.61596348036</v>
       </c>
       <c r="B28" t="n">
-        <v>687.0527909353259</v>
+        <v>2142.805747544749</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>169983.5998635362</v>
+        <v>81676.70391723877</v>
       </c>
       <c r="B29" t="n">
-        <v>786.0153692421843</v>
+        <v>1992.928024233464</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>188325.2263735493</v>
+        <v>90020.17793552074</v>
       </c>
       <c r="B30" t="n">
-        <v>786.0153692421843</v>
+        <v>1635.427564258464</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>178576.1727715351</v>
+        <v>87896.87006339413</v>
       </c>
       <c r="B31" t="n">
-        <v>575.3723793032586</v>
+        <v>1712.384027612148</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>195811.596531581</v>
+        <v>61514.71153842681</v>
       </c>
       <c r="B32" t="n">
-        <v>712.3465563551704</v>
+        <v>1733.937008778126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>199272.9608045192</v>
+        <v>64050.31009842389</v>
       </c>
       <c r="B33" t="n">
-        <v>616.2614201921311</v>
+        <v>1775.693373237991</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>173716.2451029225</v>
+        <v>114936.4578373113</v>
       </c>
       <c r="B34" t="n">
-        <v>596.2139356657478</v>
+        <v>1863.244212206027</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>113670.1852005663</v>
+        <v>94571.29326792844</v>
       </c>
       <c r="B35" t="n">
-        <v>1009.776126787438</v>
+        <v>1737.383768557473</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>160372.621306855</v>
+        <v>73388.51497938875</v>
       </c>
       <c r="B36" t="n">
-        <v>887.622820180497</v>
+        <v>1690.590013425738</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>123216.0731978344</v>
+        <v>59868.54664729157</v>
       </c>
       <c r="B37" t="n">
-        <v>768.8386410331273</v>
+        <v>1510.229975613806</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>123750.6360577862</v>
+        <v>98656.31399860166</v>
       </c>
       <c r="B38" t="n">
-        <v>1011.793624681215</v>
+        <v>1616.006630475376</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>174489.3704995874</v>
+        <v>105438.7238025313</v>
       </c>
       <c r="B39" t="n">
-        <v>831.7007657411086</v>
+        <v>1735.98629256999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>121563.151865423</v>
+        <v>68421.20607587881</v>
       </c>
       <c r="B40" t="n">
-        <v>787.1309444990652</v>
+        <v>1659.630504437916</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>127153.559389141</v>
+        <v>57220.98797682809</v>
       </c>
       <c r="B41" t="n">
-        <v>865.4386333097093</v>
+        <v>1702.057252522437</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>141391.5035353235</v>
+        <v>72847.65146747109</v>
       </c>
       <c r="B42" t="n">
-        <v>816.7124671910302</v>
+        <v>1681.045440357997</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>121159.5927310148</v>
+        <v>72235.64425424612</v>
       </c>
       <c r="B43" t="n">
-        <v>769.1019680076513</v>
+        <v>1448.373368578115</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>98872.18072389068</v>
+        <v>58940.27478332086</v>
       </c>
       <c r="B44" t="n">
-        <v>756.702768844473</v>
+        <v>1643.032762981936</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112250.1018470039</v>
+        <v>77831.19167728491</v>
       </c>
       <c r="B45" t="n">
-        <v>848.6909589120381</v>
+        <v>1603.348979079553</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>89806.81170808917</v>
+        <v>96149.56717151351</v>
       </c>
       <c r="B46" t="n">
-        <v>573.560579687204</v>
+        <v>1646.83775710038</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>68863.86145876942</v>
+        <v>52782.95702458832</v>
       </c>
       <c r="B47" t="n">
-        <v>700.3721516151204</v>
+        <v>1614.148069369628</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>118797.3766539107</v>
+        <v>50863.06845593829</v>
       </c>
       <c r="B48" t="n">
-        <v>581.8375764927783</v>
+        <v>1382.559740901268</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>84197.18150406617</v>
+        <v>42286.1992583945</v>
       </c>
       <c r="B49" t="n">
-        <v>583.91498355372</v>
+        <v>1607.653287805374</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>28912.6719945664</v>
+        <v>39966.3669558035</v>
       </c>
       <c r="B50" t="n">
-        <v>596.2881076448004</v>
+        <v>1666.62440195741</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>65203.02413143031</v>
+        <v>50892.92169593713</v>
       </c>
       <c r="B51" t="n">
-        <v>604.72437129018</v>
+        <v>1548.477691270122</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>78950.19025139142</v>
+        <v>40835.03413536645</v>
       </c>
       <c r="B52" t="n">
-        <v>586.4892680940876</v>
+        <v>1650.883029188321</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>67360.55162414079</v>
+        <v>55370.81941701427</v>
       </c>
       <c r="B53" t="n">
-        <v>592.2038940087102</v>
+        <v>1566.720213544017</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>23554.8746086911</v>
+        <v>39490.69853802889</v>
       </c>
       <c r="B54" t="n">
-        <v>650.8129749160767</v>
+        <v>1451.644589265187</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54008.09113120747</v>
+        <v>47330.42886823069</v>
       </c>
       <c r="B55" t="n">
-        <v>623.7561040986151</v>
+        <v>1520.498302846129</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>49250.23574483675</v>
+        <v>28228.4083693858</v>
       </c>
       <c r="B56" t="n">
-        <v>644.5930936969162</v>
+        <v>1561.142889246988</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>58115.84268599832</v>
+        <v>24406.38614245324</v>
       </c>
       <c r="B57" t="n">
-        <v>643.0025823071878</v>
+        <v>1593.158569999565</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22956.22354907704</v>
+        <v>59206.18157431917</v>
       </c>
       <c r="B58" t="n">
-        <v>696.7958137121965</v>
+        <v>1556.838151041308</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>27870.67107082466</v>
+        <v>53297.15761823348</v>
       </c>
       <c r="B59" t="n">
-        <v>565.0492631468023</v>
+        <v>1612.861791213523</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>39788.18322402773</v>
+        <v>57604.20579194995</v>
       </c>
       <c r="B60" t="n">
-        <v>624.4180365087575</v>
+        <v>1579.27401150826</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>57813.04903235279</v>
+        <v>35209.76910333117</v>
       </c>
       <c r="B61" t="n">
-        <v>607.2515431798139</v>
+        <v>1547.678884008735</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>38951.882590098</v>
+        <v>44446.03781255224</v>
       </c>
       <c r="B62" t="n">
-        <v>585.2403174905805</v>
+        <v>1562.710446967326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>48536.61831335371</v>
+        <v>38832.95283108563</v>
       </c>
       <c r="B63" t="n">
-        <v>617.7174985683087</v>
+        <v>1549.552553160292</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>44029.59583166379</v>
+        <v>85085.16808531295</v>
       </c>
       <c r="B64" t="n">
-        <v>627.5367845357705</v>
+        <v>1537.887690788279</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>70153.50217423361</v>
+        <v>27810.93141983701</v>
       </c>
       <c r="B65" t="n">
-        <v>506.0586404286033</v>
+        <v>1439.280834105644</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>39630.61172434691</v>
+        <v>45460.32631846152</v>
       </c>
       <c r="B66" t="n">
-        <v>535.3028393506418</v>
+        <v>1480.978883912977</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>35784.19762688645</v>
+        <v>31796.49621286963</v>
       </c>
       <c r="B67" t="n">
-        <v>589.7392955480135</v>
+        <v>1490.922110131256</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>59489.24925175551</v>
+        <v>30979.5158208659</v>
       </c>
       <c r="B68" t="n">
-        <v>599.9600445506672</v>
+        <v>1497.656001629957</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>54067.63852991319</v>
+        <v>45882.355615072</v>
       </c>
       <c r="B69" t="n">
-        <v>553.8511084123785</v>
+        <v>1536.356161524125</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>79365.83996736353</v>
+        <v>68511.99452332285</v>
       </c>
       <c r="B70" t="n">
-        <v>548.297813804949</v>
+        <v>1550.82846443252</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>30036.95273754435</v>
+        <v>35894.92682924847</v>
       </c>
       <c r="B71" t="n">
-        <v>510.8838314759123</v>
+        <v>1472.373682466033</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>18744.48438957087</v>
+        <v>47435.33764872636</v>
       </c>
       <c r="B72" t="n">
-        <v>548.025674633842</v>
+        <v>1515.543017546007</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>44800.64109517397</v>
+        <v>40291.46156609242</v>
       </c>
       <c r="B73" t="n">
-        <v>550.4831367205664</v>
+        <v>1535.537534214637</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>54681.13523197417</v>
+        <v>75813.51374591635</v>
       </c>
       <c r="B74" t="n">
-        <v>548.2443560766793</v>
+        <v>1506.001608990358</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>68461.33527726699</v>
+        <v>63980.0288006518</v>
       </c>
       <c r="B75" t="n">
-        <v>540.5485668925057</v>
+        <v>1511.941940259496</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>38443.22542825493</v>
+        <v>48600.08236261891</v>
       </c>
       <c r="B76" t="n">
-        <v>511.9120745973767</v>
+        <v>1485.785372830213</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>28248.99976808566</v>
+        <v>33298.5425319694</v>
       </c>
       <c r="B77" t="n">
-        <v>554.8010471801699</v>
+        <v>1495.793088017198</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>28198.68766073753</v>
+        <v>38530.28814087356</v>
       </c>
       <c r="B78" t="n">
-        <v>545.1188717151583</v>
+        <v>1512.290384224377</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>49530.3908497306</v>
+        <v>20736.64965440337</v>
       </c>
       <c r="B79" t="n">
-        <v>565.2734202326809</v>
+        <v>1478.90579483513</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>64295.83405095611</v>
+        <v>39521.9819578602</v>
       </c>
       <c r="B80" t="n">
-        <v>565.9675141494045</v>
+        <v>1389.83411581555</v>
       </c>
     </row>
   </sheetData>
